--- a/biology/Histoire de la zoologie et de la botanique/Joannès_Charles_Melchior_Chatin/Joannès_Charles_Melchior_Chatin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joannès_Charles_Melchior_Chatin/Joannès_Charles_Melchior_Chatin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joann%C3%A8s_Charles_Melchior_Chatin</t>
+          <t>Joannès_Charles_Melchior_Chatin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joannès Charles Melchior Chatin est un botaniste et un zoologiste français, né le 19 août 1847 à Paris et mort le 4 juillet 1912 aux Essarts-le-Roi (Seine-et-Oise).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joann%C3%A8s_Charles_Melchior_Chatin</t>
+          <t>Joannès_Charles_Melchior_Chatin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du médecin et botaniste Gaspard Adolphe Chatin (1813-1901). Durant la guerre franco-prussienne de 1870, il est aide-major dans l’armée française.
 Après des études à Versailles et à Paris, il entre à la faculté de médecine et des sciences de Paris. Chatin obtient un titre de docteur en médecine en 1871 et de docteur en sciences naturelles en 1873, il est agrégé en 1874. Cette même année, il est préparateur à l’École supérieure de pharmacie dirigée par son père, puis, en 1874, agrégé dans cette même école. Puis, il est répétiteur à l’École pratique des hautes études et maître de conférences à la faculté des sciences de Paris. En 1876, il se marie avec Amélie Bouis, fille de Jules Bouis (1822-1886), professeur à l’École centrale et à l’École supérieure de pharmacie, membre de l’Académie de médecine. De cette union naîtront trois fils. Le 4 janvier 1887, il est professeur adjoint d’université, puis en 1899, il est nommé professeur titulaire. Il supplée Henri Milne Edwards (1800-1885) (1878, 1883, 1885) et Henri de Lacaze-Duthiers (1821-1901) (1894).
-Il reçoit le prix Barbier en 1883 pour sa monographie de la trichine[1] (il a déjà eu droit à un encouragement de 500 francs venant du même prix en 1872[2]).
+Il reçoit le prix Barbier en 1883 pour sa monographie de la trichine (il a déjà eu droit à un encouragement de 500 francs venant du même prix en 1872).
 Il fait partie de l’Académie de médecine (25 mai 1886) et de l’Académie des sciences (1900). Il est membre en outre du Comité des travaux scientifiques et historiques ainsi que de la Société philomathique de Paris et de la Société nationale d’agriculture de France. Il est fait officier de la Légion d'honneur. Il est l’auteur de 230 titres.
-Sa tombe est au cimetière du Père-Lachaise (53e division)[3].
+Sa tombe est au cimetière du Père-Lachaise (53e division).
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joann%C3%A8s_Charles_Melchior_Chatin</t>
+          <t>Joannès_Charles_Melchior_Chatin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Études botaniques, chimiques et médicales sur les Valérianées, Dissertation 1872
 Études sur le développement de l'ovule et de la graine, dans les Scrofularinées, les Solanacées, les Borraginées et les Labiées, 1872
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joann%C3%A8s_Charles_Melchior_Chatin</t>
+          <t>Joannès_Charles_Melchior_Chatin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Christophe Charle et Eva Telkes (1989). Les Professeurs de la Faculté des sciences de Paris. Dictionnaire biographique (1901-1939), Institut national de recherche pédagogique (Paris) et CNRS Éditions, collection Histoire biographique de l’Enseignement : 270 p.  (ISBN 2-222-04336-0)</t>
         </is>
